--- a/1_テーマに対する検討/認証とアクセスコントロール.xlsx
+++ b/1_テーマに対する検討/認証とアクセスコントロール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\1_テーマに対する検討\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D52B89-4D62-4200-84D1-DE4A4E85C09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA5DA8-472D-4503-A539-2E0FE8767774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="375" windowWidth="13185" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用語" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>カード使用者が正当な使用者であることを証明するためにICカードを使用するときに使用する文字列を示す
 PINには一定回数の失敗でロックをかける機能があることが一般的。
@@ -421,6 +421,312 @@
     </rPh>
     <rPh sb="55" eb="56">
       <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSRF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウントログイン中のユーザーに対して、不正に悪意あるリクエストを送信されることを目的とする攻撃手法。
+CookieやURLパラメータを利用する。
+CSRF攻撃のために必要なこと
+1.認証されたユーザーがログインしている状態でセッション管理にCookieを使用するアプリ
+2.攻撃者が状態を変更する偽造リクエストを作成する
+3.ターゲットとなるサーバーが予測不可能なパラメータを含む正当な陸枝嘘tを処理しない</t>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>アクイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="138" eb="141">
+      <t>コウゲキシャ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="177" eb="182">
+      <t>ヨソクフカノウ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="194" eb="197">
+      <t>リクエウソ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SameSite Cookieポリシーが適切に設定されていないアプリケーションでCookieを使用する方法です。ウェブブラウザは通常、Cookieを自動的に保存し、ユーザーがドメインに対して行うすべてのリクエストに対して、そのドメインで使用されたCookieを送信します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kerberos認証</t>
+    <rPh sb="8" eb="10">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSOはKerberosでも実現可能</t>
+    <rPh sb="14" eb="16">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レルムを１台の管理サーバー(KDC)によりクライアント-サーバーの認証を行う。</t>
+    <rPh sb="5" eb="6">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レルム内に関してはSSOを実現する</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KDCとクライアントで共有キーを設定しておく必要がある</t>
+    <rPh sb="11" eb="13">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証情報はレルム内でやり取りされている限り暗号化されている</t>
+    <rPh sb="0" eb="4">
+      <t>ニンショウジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意の対称暗号鍵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1通信セッションのみを暗号化するために利用されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1度だけ、特定の持続時間中に、2者間に送信されたデータを暗号化および復号化するために使用される一時的な鍵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション鍵は、ログインのたびにリセットするパスワードのようなものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TLS（過去に「SSL」と呼ばれる）では、通信当事者両（クライアントとサーバー）が、任意の通信セッションの開始時、TLS ハンドシェイク中に、セッション鍵を生成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションとは、２社間の会話。ネットワークを介して行われる。２デバイスが相互に確認応答することで仮想接続開始。</t>
+    <rPh sb="9" eb="11">
+      <t>シャカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイワ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウゴ</t>
+    </rPh>
+    <rPh sb="39" eb="43">
+      <t>カクニンオウトウ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>カソウセツゾク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールデンチケット攻撃</t>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威アクターがMicrosoft Active Directory（AD）に保存されているユーザーデータにアクセスすることにより、組織のドメイン（デバイス、ファイル、ドメインコントローラーなど）に、ほぼ無制限にアクセスしようとする悪意のあるサイバーセキュリティ攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この攻撃はADへのアクセスに使用されるKerberosアイデンティティ認証プロトコルの弱点を悪用し、攻撃者が通常の認証をバイパスできるようにします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPNEGOプロトコル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IETFのRFC4178で標準化</t>
+    <rPh sb="13" eb="16">
+      <t>ヒョウジュンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebSphere Application Server のグローバル・セキュリティーとアプリケーション・セキュリティーが有効になっていて、SPNEGO Web 認証が有効になっている場合、最初のインバウンド HTTP 要求の処理時に SPNEGO が初期化されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SPNEGO は、HTTP 要求内で識別される保護されたリソースへのアクセスの認証を担当します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントは、HTTP/Post/Get/Web-Service 要求を WebSphere Application Serverに送信します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebSphere Application Server は HTTP 401 Authenticate/Negotiate を返します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントは、チケット許可チケット (TGT) を取得します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントは、サービス・チケット (TGS_REQ) を要求します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントは、サービス・チケット (TGS_REP) を取得します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントは、HTTP/Post/Get/Web-Service と許可 SPNEGO トークンを WebSphere Application Serverに送信します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebSphere Application Server は、SPNEGO トークンを検証します。 妥当性検査が成功した場合、ユーザー ID と GSS 代行クレデンシャルが SPNEGO トークンから取得されます。 クライアント Kerberos 資格情報を持つ KRBAuthnToken が作成されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>認証システムと連携するネゴシエーションを行う。KERBEROSを用いたSSOを実現する仕組み</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,12 +771,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -751,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -770,7 +1075,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" t="str">
         <f>B1&amp;"について以下の説明で不足する情報があれば指摘してください"&amp;B2</f>
         <v>PINコードについて以下の説明で不足する情報があれば指摘してくださいカード使用者が正当な使用者であることを証明するためにICカードを使用するときに使用する文字列を示す
 PINには一定回数の失敗でロックをかける機能があることが一般的。
@@ -887,6 +1192,176 @@
     <row r="26" spans="1:2" ht="37.5">
       <c r="B26" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="131.25">
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="56.25">
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="37.5">
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="37.5">
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="37.5">
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="56.25">
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="37.5">
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="56.25">
+      <c r="B55" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="37.5">
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="37.5">
+      <c r="B57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="B61" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="37.5">
+      <c r="B62" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="56.25">
+      <c r="B63" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/1_テーマに対する検討/認証とアクセスコントロール.xlsx
+++ b/1_テーマに対する検討/認証とアクセスコントロール.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinaga\Documents\Python Scripts\security_specialist\1_テーマに対する検討\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAA5DA8-472D-4503-A539-2E0FE8767774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252AEDF7-82E6-42DC-A65C-B70FB47CFE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="375" windowWidth="13185" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="16560" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用語" sheetId="1" r:id="rId1"/>
+    <sheet name="問題" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>カード使用者が正当な使用者であることを証明するためにICカードを使用するときに使用する文字列を示す
 PINには一定回数の失敗でロックをかける機能があることが一般的。
@@ -728,6 +729,355 @@
     <rPh sb="43" eb="45">
       <t>シク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NISTによって標準のハッシュ関数として指定されている</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SHA-1、SHA-2、SHA-3の３種類</t>
+    <rPh sb="19" eb="21">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sha-2以降はSHA-256などの出力長の情報をつなげれらている</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シュツリョクナガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cryptrec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本の組織</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号技術を評価する</t>
+    <rPh sb="0" eb="4">
+      <t>アンゴウギジュツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子政府推奨暗号リストを策定・公表している</t>
+    <rPh sb="0" eb="4">
+      <t>デンシセイフ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JCMVP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japan Cryptographic Module Validation Program</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号モジュール試験及び認証精度</t>
+    <rPh sb="0" eb="2">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPAが運営している</t>
+    <rPh sb="4" eb="6">
+      <t>ウンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JIS X 19790</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIPS140を基にした暗号モジュールの認定を受けた製品リスト</t>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIPS140</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>米国政府における暗号モジュールの認定基準＆認定を受けた製品リスト</t>
+    <rPh sb="0" eb="4">
+      <t>ベイコクセイフ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ニンテイキジュン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンテイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIPS180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ関数についての規格</t>
+    <rPh sb="4" eb="6">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3大要素</t>
+    <rPh sb="1" eb="4">
+      <t>ダイヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報資産、脅威、脆弱性</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウシサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ゼイジャクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報セキュリティ３要素</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完全性、機密性、可用性</t>
+    <rPh sb="0" eb="3">
+      <t>カンゼンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キミツセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報処理重点対策</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウホウショリ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ジュウテンタイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N社金融</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外取引を拡大→グローバル展開</t>
+    <rPh sb="0" eb="4">
+      <t>カイガイトリヒキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N社情報システムを一本化</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>イッポンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者ID管理認証を統一</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社内システムで共通性のたかいものを共通化</t>
+    <rPh sb="0" eb="2">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キョウツウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>キョウツウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者ID管理と運用を統一</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ウンヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ディレクトリサービス（directory service）とは、ネットワーク上の資源に統一された識別名を与え、その所在や属性、設定などの情報を登録・記録し、検索・提供できるようにしたシステム。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本</t>
+    <rPh sb="0" eb="2">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>欧米</t>
+    <rPh sb="0" eb="2">
+      <t>オウベイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID+PW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -771,11 +1121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1056,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1364,6 +1715,231 @@
         <v>48</v>
       </c>
     </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>15</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="B74" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="B77" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="B79" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="B82" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>19</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="B85" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>21</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>22</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F082DA-D637-4D10-9717-03A502CBD226}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
